--- a/01_studies/01_Laborstudie ProVisioNET/Fitbit/fitbit_proj_final/Data/data_empschul_labor_lehrperson.xlsx
+++ b/01_studies/01_Laborstudie ProVisioNET/Fitbit/fitbit_proj_final/Data/data_empschul_labor_lehrperson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/01_studies/01_Laborstudie ProVisioNET/Fitbit/fitbit_proj_final/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\01_studies\01_Laborstudie ProVisioNET\Fitbit\fitbit_proj_final\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90C0D2E7-5510-4FF3-85AB-0F462A8A7076}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{90C0D2E7-5510-4FF3-85AB-0F462A8A7076}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B054C653-778B-4030-8CDC-209EE48FF059}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="46080" windowHeight="21276"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="46080" windowHeight="21276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_empschul_labor_lehrperson" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="160">
   <si>
     <t>CASE</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Emsoz</t>
   </si>
   <si>
-    <t>LE</t>
-  </si>
-  <si>
     <t>GSD</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
   </si>
   <si>
     <t>Start Training</t>
-  </si>
-  <si>
-    <t>0.58</t>
   </si>
   <si>
     <t>Lernen</t>
@@ -511,7 +505,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1348,10 +1342,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6957,7 +6953,7 @@
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
         <v>66</v>
@@ -6966,16 +6962,16 @@
         <v>67</v>
       </c>
       <c r="F32" s="1">
-        <v>44670.653993055559</v>
+        <v>44670.654780092591</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <v>4</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -6999,41 +6995,41 @@
         <v>0</v>
       </c>
       <c r="Q32" t="s">
+        <v>129</v>
+      </c>
+      <c r="R32" t="s">
         <v>125</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>126</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32">
+        <v>122</v>
+      </c>
+      <c r="U32" t="s">
         <v>127</v>
       </c>
-      <c r="T32">
-        <v>121</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>3</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
         <v>128</v>
       </c>
-      <c r="V32">
-        <v>4</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>4</v>
-      </c>
-      <c r="Y32">
-        <v>4</v>
-      </c>
-      <c r="Z32">
-        <v>4</v>
-      </c>
-      <c r="AA32">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>129</v>
-      </c>
       <c r="AE32">
         <v>4</v>
       </c>
@@ -7044,10 +7040,10 @@
         <v>3</v>
       </c>
       <c r="AH32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ32">
         <v>2</v>
@@ -7056,19 +7052,19 @@
         <v>2</v>
       </c>
       <c r="AL32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM32">
         <v>3</v>
       </c>
       <c r="AN32">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AP32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ32">
         <v>4</v>
@@ -7080,13 +7076,13 @@
         <v>4</v>
       </c>
       <c r="AT32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU32">
         <v>3</v>
       </c>
       <c r="AV32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW32">
         <v>3</v>
@@ -7101,19 +7097,19 @@
         <v>3</v>
       </c>
       <c r="BA32">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="BB32">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="BC32">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="BD32">
-        <v>687</v>
+        <v>317</v>
       </c>
       <c r="BF32" s="1">
-        <v>44700.740243055552</v>
+        <v>44670.658449074072</v>
       </c>
       <c r="BG32">
         <v>1</v>
@@ -7133,16 +7129,16 @@
       <c r="BL32">
         <v>0</v>
       </c>
-      <c r="BM32" t="s">
-        <v>130</v>
+      <c r="BM32" s="2">
+        <v>26665</v>
       </c>
       <c r="BN32">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -7151,25 +7147,25 @@
         <v>67</v>
       </c>
       <c r="F33" s="1">
-        <v>44670.654780092591</v>
+        <v>44677.662928240738</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -7178,52 +7174,37 @@
         <v>1</v>
       </c>
       <c r="O33">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="R33" t="s">
-        <v>125</v>
-      </c>
-      <c r="S33" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="T33">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="U33" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="V33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <v>4</v>
-      </c>
-      <c r="Y33">
-        <v>3</v>
-      </c>
-      <c r="Z33">
-        <v>4</v>
-      </c>
-      <c r="AA33">
-        <v>1</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>129</v>
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
       </c>
       <c r="AE33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG33">
         <v>3</v>
@@ -7232,7 +7213,7 @@
         <v>4</v>
       </c>
       <c r="AI33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ33">
         <v>2</v>
@@ -7241,10 +7222,10 @@
         <v>2</v>
       </c>
       <c r="AL33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN33">
         <v>80</v>
@@ -7259,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="AR33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS33">
         <v>4</v>
@@ -7283,22 +7264,22 @@
         <v>3</v>
       </c>
       <c r="AZ33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA33">
-        <v>23</v>
+        <v>2195</v>
       </c>
       <c r="BB33">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="BC33">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="BD33">
-        <v>317</v>
+        <v>434</v>
       </c>
       <c r="BF33" s="1">
-        <v>44670.658449074072</v>
+        <v>44677.692245370374</v>
       </c>
       <c r="BG33">
         <v>1</v>
@@ -7313,21 +7294,21 @@
         <v>3</v>
       </c>
       <c r="BK33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL33">
-        <v>0</v>
-      </c>
-      <c r="BM33" s="2">
-        <v>26665</v>
+        <v>1</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>130</v>
       </c>
       <c r="BN33">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
         <v>66</v>
@@ -7336,25 +7317,25 @@
         <v>67</v>
       </c>
       <c r="F34" s="1">
-        <v>44677.662928240738</v>
+        <v>44686.616041666668</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -7363,31 +7344,37 @@
         <v>1</v>
       </c>
       <c r="O34">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="P34">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Q34" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="R34" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="S34" t="s">
+        <v>132</v>
       </c>
       <c r="T34">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U34" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="V34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W34">
         <v>2</v>
       </c>
       <c r="AC34">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>133</v>
       </c>
       <c r="AE34">
         <v>3</v>
@@ -7399,28 +7386,28 @@
         <v>3</v>
       </c>
       <c r="AH34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI34">
         <v>3</v>
       </c>
       <c r="AJ34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL34">
         <v>3</v>
       </c>
       <c r="AM34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN34">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AO34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AP34">
         <v>3</v>
@@ -7429,7 +7416,7 @@
         <v>4</v>
       </c>
       <c r="AR34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS34">
         <v>4</v>
@@ -7438,37 +7425,37 @@
         <v>4</v>
       </c>
       <c r="AU34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW34">
         <v>3</v>
       </c>
       <c r="AX34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA34">
-        <v>2195</v>
+        <v>85</v>
       </c>
       <c r="BB34">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="BC34">
-        <v>292</v>
+        <v>574</v>
       </c>
       <c r="BD34">
-        <v>434</v>
+        <v>351</v>
       </c>
       <c r="BF34" s="1">
-        <v>44677.692245370374</v>
+        <v>44686.624664351853</v>
       </c>
       <c r="BG34">
         <v>1</v>
@@ -7483,21 +7470,21 @@
         <v>3</v>
       </c>
       <c r="BK34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BN34">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D35" t="s">
         <v>66</v>
@@ -7506,7 +7493,7 @@
         <v>67</v>
       </c>
       <c r="F35" s="1">
-        <v>44686.616041666668</v>
+        <v>44686.702025462961</v>
       </c>
       <c r="G35">
         <v>3</v>
@@ -7536,73 +7523,67 @@
         <v>57</v>
       </c>
       <c r="P35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q35" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="R35" t="s">
+        <v>135</v>
+      </c>
+      <c r="T35">
+        <v>212</v>
+      </c>
+      <c r="U35" t="s">
         <v>76</v>
       </c>
-      <c r="S35" t="s">
-        <v>134</v>
-      </c>
-      <c r="T35">
-        <v>211</v>
-      </c>
-      <c r="U35" t="s">
-        <v>133</v>
-      </c>
       <c r="V35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W35">
         <v>2</v>
       </c>
       <c r="AC35">
-        <v>1</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="AE35">
         <v>3</v>
       </c>
       <c r="AF35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH35">
         <v>3</v>
       </c>
       <c r="AI35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ35">
         <v>3</v>
       </c>
       <c r="AK35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL35">
         <v>3</v>
       </c>
       <c r="AM35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN35">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AO35">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AP35">
         <v>3</v>
       </c>
       <c r="AQ35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR35">
         <v>2</v>
@@ -7611,69 +7592,69 @@
         <v>4</v>
       </c>
       <c r="AT35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW35">
         <v>3</v>
       </c>
       <c r="AX35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY35">
         <v>4</v>
       </c>
       <c r="AZ35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA35">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="BB35">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="BC35">
-        <v>574</v>
+        <v>282</v>
       </c>
       <c r="BD35">
-        <v>351</v>
+        <v>493</v>
       </c>
       <c r="BF35" s="1">
-        <v>44686.624664351853</v>
+        <v>44719.456354166665</v>
       </c>
       <c r="BG35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH35">
         <v>0</v>
       </c>
       <c r="BI35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ35">
         <v>3</v>
       </c>
       <c r="BK35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM35" t="s">
         <v>136</v>
       </c>
       <c r="BN35">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
         <v>66</v>
@@ -7682,25 +7663,25 @@
         <v>67</v>
       </c>
       <c r="F36" s="1">
-        <v>44686.702025462961</v>
+        <v>44700.568599537037</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -7709,32 +7690,38 @@
         <v>1</v>
       </c>
       <c r="O36">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P36">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="Q36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R36" t="s">
+        <v>79</v>
+      </c>
+      <c r="T36">
+        <v>213</v>
+      </c>
+      <c r="U36" t="s">
+        <v>79</v>
+      </c>
+      <c r="V36">
+        <v>11</v>
+      </c>
+      <c r="W36">
+        <v>2</v>
+      </c>
+      <c r="AA36">
+        <v>-9</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36" t="s">
         <v>137</v>
       </c>
-      <c r="T36">
-        <v>212</v>
-      </c>
-      <c r="U36" t="s">
-        <v>76</v>
-      </c>
-      <c r="V36">
-        <v>8</v>
-      </c>
-      <c r="W36">
-        <v>2</v>
-      </c>
-      <c r="AC36">
-        <v>2</v>
-      </c>
       <c r="AE36">
         <v>3</v>
       </c>
@@ -7748,73 +7735,73 @@
         <v>3</v>
       </c>
       <c r="AI36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL36">
         <v>3</v>
       </c>
       <c r="AM36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN36">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AO36">
         <v>20</v>
       </c>
       <c r="AP36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU36">
         <v>3</v>
       </c>
       <c r="AV36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ36">
         <v>3</v>
       </c>
       <c r="BA36">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="BB36">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="BC36">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="BD36">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="BF36" s="1">
-        <v>44719.456354166665</v>
+        <v>44732.615266203706</v>
       </c>
       <c r="BG36">
         <v>0</v>
@@ -7823,27 +7810,27 @@
         <v>0</v>
       </c>
       <c r="BI36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ36">
         <v>3</v>
       </c>
       <c r="BK36">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BL36">
-        <v>1</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>138</v>
+        <v>9</v>
+      </c>
+      <c r="BM36" s="3">
+        <v>44682</v>
       </c>
       <c r="BN36">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
         <v>66</v>
@@ -7852,25 +7839,25 @@
         <v>67</v>
       </c>
       <c r="F37" s="1">
-        <v>44700.568599537037</v>
+        <v>44701.614374999997</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -7879,55 +7866,58 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R37" t="s">
         <v>79</v>
       </c>
       <c r="T37">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="U37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V37">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="W37">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>36</v>
+      </c>
+      <c r="Z37">
+        <v>8</v>
       </c>
       <c r="AA37">
-        <v>-9</v>
-      </c>
-      <c r="AC37">
-        <v>1</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="AE37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF37">
         <v>3</v>
       </c>
       <c r="AG37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI37">
         <v>3</v>
       </c>
       <c r="AJ37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK37">
         <v>2</v>
@@ -7936,28 +7926,28 @@
         <v>3</v>
       </c>
       <c r="AM37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN37">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AO37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AP37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -7966,31 +7956,31 @@
         <v>4</v>
       </c>
       <c r="AW37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ37">
         <v>3</v>
       </c>
       <c r="BA37">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="BB37">
-        <v>67</v>
+        <v>518</v>
       </c>
       <c r="BC37">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="BD37">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="BF37" s="1">
-        <v>44732.615266203706</v>
+        <v>44732.624085648145</v>
       </c>
       <c r="BG37">
         <v>0</v>
@@ -8005,21 +7995,21 @@
         <v>3</v>
       </c>
       <c r="BK37">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BL37">
-        <v>9</v>
-      </c>
-      <c r="BM37" s="3">
-        <v>44682</v>
+        <v>1</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>138</v>
       </c>
       <c r="BN37">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D38" t="s">
         <v>66</v>
@@ -8028,16 +8018,16 @@
         <v>67</v>
       </c>
       <c r="F38" s="1">
-        <v>44701.614374999997</v>
+        <v>44706.542893518519</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -8055,139 +8045,133 @@
         <v>1</v>
       </c>
       <c r="O38">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q38" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="R38" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="T38">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="U38" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="V38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38">
+        <v>2</v>
+      </c>
+      <c r="AA38">
+        <v>-9</v>
+      </c>
+      <c r="AC38">
+        <v>2</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>3</v>
+      </c>
+      <c r="AG38">
+        <v>3</v>
+      </c>
+      <c r="AH38">
+        <v>3</v>
+      </c>
+      <c r="AI38">
+        <v>3</v>
+      </c>
+      <c r="AJ38">
+        <v>3</v>
+      </c>
+      <c r="AK38">
+        <v>3</v>
+      </c>
+      <c r="AL38">
+        <v>4</v>
+      </c>
+      <c r="AM38">
+        <v>4</v>
+      </c>
+      <c r="AN38">
+        <v>30</v>
+      </c>
+      <c r="AO38">
+        <v>20</v>
+      </c>
+      <c r="AP38">
+        <v>4</v>
+      </c>
+      <c r="AQ38">
+        <v>4</v>
+      </c>
+      <c r="AR38">
+        <v>4</v>
+      </c>
+      <c r="AS38">
+        <v>4</v>
+      </c>
+      <c r="AT38">
+        <v>3</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>4</v>
+      </c>
+      <c r="AZ38">
+        <v>4</v>
+      </c>
+      <c r="BA38">
+        <v>97</v>
+      </c>
+      <c r="BB38">
+        <v>686</v>
+      </c>
+      <c r="BC38">
+        <v>278</v>
+      </c>
+      <c r="BD38">
+        <v>479</v>
+      </c>
+      <c r="BF38" s="1">
+        <v>44732.61650462963</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>1</v>
+      </c>
+      <c r="BJ38">
+        <v>3</v>
+      </c>
+      <c r="BK38">
+        <v>13</v>
+      </c>
+      <c r="BL38">
         <v>10</v>
-      </c>
-      <c r="Y38">
-        <v>36</v>
-      </c>
-      <c r="Z38">
-        <v>8</v>
-      </c>
-      <c r="AA38">
-        <v>2</v>
-      </c>
-      <c r="AE38">
-        <v>2</v>
-      </c>
-      <c r="AF38">
-        <v>3</v>
-      </c>
-      <c r="AG38">
-        <v>3</v>
-      </c>
-      <c r="AH38">
-        <v>4</v>
-      </c>
-      <c r="AI38">
-        <v>3</v>
-      </c>
-      <c r="AJ38">
-        <v>3</v>
-      </c>
-      <c r="AK38">
-        <v>2</v>
-      </c>
-      <c r="AL38">
-        <v>3</v>
-      </c>
-      <c r="AM38">
-        <v>2</v>
-      </c>
-      <c r="AN38">
-        <v>80</v>
-      </c>
-      <c r="AO38">
-        <v>10</v>
-      </c>
-      <c r="AP38">
-        <v>3</v>
-      </c>
-      <c r="AQ38">
-        <v>3</v>
-      </c>
-      <c r="AR38">
-        <v>3</v>
-      </c>
-      <c r="AS38">
-        <v>4</v>
-      </c>
-      <c r="AT38">
-        <v>3</v>
-      </c>
-      <c r="AU38">
-        <v>3</v>
-      </c>
-      <c r="AV38">
-        <v>4</v>
-      </c>
-      <c r="AW38">
-        <v>3</v>
-      </c>
-      <c r="AX38">
-        <v>3</v>
-      </c>
-      <c r="AY38">
-        <v>2</v>
-      </c>
-      <c r="AZ38">
-        <v>3</v>
-      </c>
-      <c r="BA38">
-        <v>121</v>
-      </c>
-      <c r="BB38">
-        <v>518</v>
-      </c>
-      <c r="BC38">
-        <v>177</v>
-      </c>
-      <c r="BD38">
-        <v>402</v>
-      </c>
-      <c r="BF38" s="1">
-        <v>44732.624085648145</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>0</v>
-      </c>
-      <c r="BI38">
-        <v>1</v>
-      </c>
-      <c r="BJ38">
-        <v>3</v>
-      </c>
-      <c r="BK38">
-        <v>3</v>
-      </c>
-      <c r="BL38">
-        <v>1</v>
       </c>
       <c r="BM38" t="s">
         <v>140</v>
@@ -8198,7 +8182,7 @@
     </row>
     <row r="39" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
         <v>66</v>
@@ -8207,16 +8191,16 @@
         <v>67</v>
       </c>
       <c r="F39" s="1">
-        <v>44706.542893518519</v>
+        <v>44706.636377314811</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -8234,22 +8218,25 @@
         <v>1</v>
       </c>
       <c r="O39">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="P39">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="R39" t="s">
+        <v>72</v>
+      </c>
+      <c r="S39" t="s">
+        <v>107</v>
+      </c>
+      <c r="T39">
+        <v>215</v>
+      </c>
+      <c r="U39" t="s">
         <v>141</v>
-      </c>
-      <c r="T39">
-        <v>214</v>
-      </c>
-      <c r="U39" t="s">
-        <v>109</v>
       </c>
       <c r="V39">
         <v>6</v>
@@ -8267,7 +8254,7 @@
         <v>3</v>
       </c>
       <c r="AF39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG39">
         <v>3</v>
@@ -8276,40 +8263,40 @@
         <v>3</v>
       </c>
       <c r="AI39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ39">
         <v>3</v>
       </c>
       <c r="AK39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM39">
         <v>4</v>
       </c>
       <c r="AN39">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AO39">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AP39">
         <v>4</v>
       </c>
       <c r="AQ39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -8318,7 +8305,7 @@
         <v>4</v>
       </c>
       <c r="AW39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX39">
         <v>4</v>
@@ -8330,19 +8317,19 @@
         <v>4</v>
       </c>
       <c r="BA39">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="BB39">
-        <v>686</v>
+        <v>395</v>
       </c>
       <c r="BC39">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="BD39">
-        <v>479</v>
+        <v>402</v>
       </c>
       <c r="BF39" s="1">
-        <v>44732.61650462963</v>
+        <v>44719.461111111108</v>
       </c>
       <c r="BG39">
         <v>0</v>
@@ -8351,27 +8338,27 @@
         <v>0</v>
       </c>
       <c r="BI39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ39">
         <v>3</v>
       </c>
       <c r="BK39">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BL39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BM39" t="s">
         <v>142</v>
       </c>
       <c r="BN39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
@@ -8380,7 +8367,7 @@
         <v>67</v>
       </c>
       <c r="F40" s="1">
-        <v>44706.636377314811</v>
+        <v>44715.578194444446</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -8389,7 +8376,7 @@
         <v>4</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -8407,40 +8394,43 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="s">
+        <v>76</v>
+      </c>
+      <c r="T40">
+        <v>124</v>
+      </c>
+      <c r="U40" t="s">
+        <v>76</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>4</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>9</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
         <v>143</v>
       </c>
-      <c r="R40" t="s">
-        <v>72</v>
-      </c>
-      <c r="S40" t="s">
-        <v>107</v>
-      </c>
-      <c r="T40">
-        <v>215</v>
-      </c>
-      <c r="U40" t="s">
-        <v>143</v>
-      </c>
-      <c r="V40">
-        <v>6</v>
-      </c>
-      <c r="W40">
-        <v>2</v>
-      </c>
-      <c r="AA40">
-        <v>-9</v>
-      </c>
-      <c r="AC40">
-        <v>2</v>
-      </c>
       <c r="AE40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF40">
         <v>4</v>
@@ -8452,7 +8442,7 @@
         <v>3</v>
       </c>
       <c r="AI40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ40">
         <v>3</v>
@@ -8461,43 +8451,43 @@
         <v>4</v>
       </c>
       <c r="AL40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN40">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AP40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS40">
         <v>3</v>
       </c>
       <c r="AT40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW40">
         <v>3</v>
       </c>
       <c r="AX40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY40">
         <v>4</v>
@@ -8506,48 +8496,48 @@
         <v>4</v>
       </c>
       <c r="BA40">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="BB40">
-        <v>395</v>
+        <v>84</v>
       </c>
       <c r="BC40">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="BD40">
-        <v>402</v>
+        <v>287</v>
       </c>
       <c r="BF40" s="1">
-        <v>44719.461111111108</v>
+        <v>44715.581516203703</v>
       </c>
       <c r="BG40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH40">
         <v>0</v>
       </c>
       <c r="BI40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ40">
         <v>3</v>
       </c>
       <c r="BK40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BL40">
-        <v>9</v>
-      </c>
-      <c r="BM40" t="s">
-        <v>144</v>
+        <v>3</v>
+      </c>
+      <c r="BM40" s="3">
+        <v>44652</v>
       </c>
       <c r="BN40">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
         <v>66</v>
@@ -8556,25 +8546,25 @@
         <v>67</v>
       </c>
       <c r="F41" s="1">
-        <v>44715.578194444446</v>
+        <v>44719.655393518522</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -8583,46 +8573,40 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="R41" t="s">
+        <v>68</v>
       </c>
       <c r="T41">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="U41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>4</v>
-      </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AA41">
-        <v>1</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>145</v>
+        <v>-9</v>
+      </c>
+      <c r="AC41">
+        <v>2</v>
       </c>
       <c r="AE41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG41">
         <v>3</v>
@@ -8637,28 +8621,28 @@
         <v>3</v>
       </c>
       <c r="AK41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM41">
         <v>3</v>
       </c>
       <c r="AN41">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO41">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS41">
         <v>3</v>
@@ -8673,7 +8657,7 @@
         <v>3</v>
       </c>
       <c r="AW41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX41">
         <v>3</v>
@@ -8682,51 +8666,51 @@
         <v>4</v>
       </c>
       <c r="AZ41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA41">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="BB41">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="BC41">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BD41">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="BF41" s="1">
-        <v>44715.581516203703</v>
+        <v>44719.740208333336</v>
       </c>
       <c r="BG41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH41">
         <v>0</v>
       </c>
       <c r="BI41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ41">
         <v>3</v>
       </c>
       <c r="BK41">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BL41">
-        <v>3</v>
-      </c>
-      <c r="BM41" s="3">
-        <v>44652</v>
+        <v>10</v>
+      </c>
+      <c r="BM41" s="2">
+        <v>45658</v>
       </c>
       <c r="BN41">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
         <v>66</v>
@@ -8735,16 +8719,16 @@
         <v>67</v>
       </c>
       <c r="F42" s="1">
-        <v>44719.655393518522</v>
+        <v>44720.4452662037</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -8762,37 +8746,46 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="P42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="s">
+        <v>72</v>
+      </c>
+      <c r="R42" t="s">
         <v>75</v>
       </c>
-      <c r="R42" t="s">
-        <v>68</v>
-      </c>
       <c r="T42">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="U42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="V42">
         <v>8</v>
       </c>
       <c r="W42">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
+      </c>
+      <c r="Y42">
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
       </c>
       <c r="AA42">
-        <v>-9</v>
-      </c>
-      <c r="AC42">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>144</v>
       </c>
       <c r="AE42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF42">
         <v>3</v>
@@ -8807,10 +8800,10 @@
         <v>3</v>
       </c>
       <c r="AJ42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL42">
         <v>3</v>
@@ -8819,13 +8812,13 @@
         <v>3</v>
       </c>
       <c r="AN42">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AO42">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AP42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ42">
         <v>3</v>
@@ -8840,66 +8833,66 @@
         <v>3</v>
       </c>
       <c r="AU42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV42">
         <v>3</v>
       </c>
       <c r="AW42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ42">
         <v>3</v>
       </c>
       <c r="BA42">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="BB42">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="BC42">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="BD42">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="BF42" s="1">
-        <v>44719.740208333336</v>
+        <v>44720.448379629626</v>
       </c>
       <c r="BG42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH42">
         <v>0</v>
       </c>
       <c r="BI42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ42">
         <v>3</v>
       </c>
       <c r="BK42">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BL42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BM42" s="2">
-        <v>45658</v>
+        <v>20821</v>
       </c>
       <c r="BN42">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s">
         <v>66</v>
@@ -8908,25 +8901,25 @@
         <v>67</v>
       </c>
       <c r="F43" s="1">
-        <v>44720.4452662037</v>
+        <v>44725.50476851852</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -8935,94 +8928,79 @@
         <v>1</v>
       </c>
       <c r="O43">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q43" t="s">
-        <v>72</v>
-      </c>
-      <c r="R43" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="T43">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="U43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="V43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43">
-        <v>8</v>
-      </c>
-      <c r="Y43">
-        <v>2</v>
-      </c>
-      <c r="Z43">
-        <v>7</v>
-      </c>
-      <c r="AA43">
-        <v>1</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="AC43">
+        <v>2</v>
       </c>
       <c r="AE43">
         <v>3</v>
       </c>
       <c r="AF43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH43">
         <v>3</v>
       </c>
       <c r="AI43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN43">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AO43">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AP43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ43">
         <v>3</v>
       </c>
       <c r="AR43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS43">
         <v>3</v>
       </c>
       <c r="AT43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV43">
         <v>3</v>
@@ -9031,28 +9009,28 @@
         <v>3</v>
       </c>
       <c r="AX43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ43">
         <v>3</v>
       </c>
       <c r="BA43">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="BB43">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="BC43">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="BD43">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="BF43" s="1">
-        <v>44720.448379629626</v>
+        <v>44725.507314814815</v>
       </c>
       <c r="BG43">
         <v>1</v>
@@ -9067,21 +9045,21 @@
         <v>3</v>
       </c>
       <c r="BK43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM43" s="2">
-        <v>20821</v>
+        <v>33970</v>
       </c>
       <c r="BN43">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
         <v>66</v>
@@ -9090,13 +9068,13 @@
         <v>67</v>
       </c>
       <c r="F44" s="1">
-        <v>44725.50476851852</v>
+        <v>44728.360613425924</v>
       </c>
       <c r="G44">
         <v>4</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -9117,19 +9095,22 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q44" t="s">
-        <v>147</v>
+        <v>76</v>
+      </c>
+      <c r="R44" t="s">
+        <v>82</v>
       </c>
       <c r="T44">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U44" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="V44">
         <v>5</v>
@@ -9137,6 +9118,9 @@
       <c r="W44">
         <v>2</v>
       </c>
+      <c r="AA44">
+        <v>-9</v>
+      </c>
       <c r="AC44">
         <v>2</v>
       </c>
@@ -9150,13 +9134,13 @@
         <v>4</v>
       </c>
       <c r="AH44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI44">
         <v>4</v>
       </c>
       <c r="AJ44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK44">
         <v>4</v>
@@ -9165,31 +9149,31 @@
         <v>4</v>
       </c>
       <c r="AM44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN44">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO44">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AP44">
         <v>4</v>
       </c>
       <c r="AQ44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR44">
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV44">
         <v>3</v>
@@ -9207,48 +9191,48 @@
         <v>3</v>
       </c>
       <c r="BA44">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="BB44">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="BC44">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="BD44">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="BF44" s="1">
-        <v>44725.507314814815</v>
+        <v>44749.978726851848</v>
       </c>
       <c r="BG44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH44">
         <v>0</v>
       </c>
       <c r="BI44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ44">
         <v>3</v>
       </c>
       <c r="BK44">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BL44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BM44" s="2">
-        <v>33970</v>
+        <v>30682</v>
       </c>
       <c r="BN44">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
         <v>66</v>
@@ -9257,7 +9241,7 @@
         <v>67</v>
       </c>
       <c r="F45" s="1">
-        <v>44728.360613425924</v>
+        <v>44728.446539351855</v>
       </c>
       <c r="G45">
         <v>4</v>
@@ -9266,16 +9250,16 @@
         <v>3</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -9284,25 +9268,25 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="R45" t="s">
+        <v>146</v>
+      </c>
+      <c r="T45">
+        <v>219</v>
+      </c>
+      <c r="U45" t="s">
         <v>82</v>
       </c>
-      <c r="T45">
-        <v>218</v>
-      </c>
-      <c r="U45" t="s">
-        <v>76</v>
-      </c>
       <c r="V45">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="W45">
         <v>2</v>
@@ -9317,61 +9301,61 @@
         <v>3</v>
       </c>
       <c r="AF45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG45">
         <v>4</v>
       </c>
       <c r="AH45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN45">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AO45">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT45">
         <v>3</v>
       </c>
       <c r="AU45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW45">
         <v>3</v>
       </c>
       <c r="AX45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY45">
         <v>4</v>
@@ -9380,19 +9364,19 @@
         <v>3</v>
       </c>
       <c r="BA45">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BB45">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="BC45">
         <v>121</v>
       </c>
       <c r="BD45">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="BF45" s="1">
-        <v>44749.978726851848</v>
+        <v>44749.978935185187</v>
       </c>
       <c r="BG45">
         <v>0</v>
@@ -9413,15 +9397,15 @@
         <v>10</v>
       </c>
       <c r="BM45" s="2">
-        <v>30682</v>
+        <v>20455</v>
       </c>
       <c r="BN45">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
         <v>66</v>
@@ -9430,16 +9414,16 @@
         <v>67</v>
       </c>
       <c r="F46" s="1">
-        <v>44728.446539351855</v>
+        <v>44749.448298611111</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -9457,115 +9441,124 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P46">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="R46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T46">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="U46" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="V46">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W46">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>8</v>
+      </c>
+      <c r="Y46">
+        <v>500</v>
+      </c>
+      <c r="Z46">
+        <v>12</v>
       </c>
       <c r="AA46">
+        <v>2</v>
+      </c>
+      <c r="AC46">
         <v>-9</v>
       </c>
-      <c r="AC46">
-        <v>2</v>
-      </c>
       <c r="AE46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AJ46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK46">
         <v>3</v>
       </c>
       <c r="AL46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN46">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY46">
         <v>4</v>
       </c>
       <c r="AZ46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA46">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="BB46">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="BC46">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="BD46">
-        <v>246</v>
+        <v>484</v>
       </c>
       <c r="BF46" s="1">
-        <v>44749.978935185187</v>
+        <v>44749.979733796295</v>
       </c>
       <c r="BG46">
         <v>0</v>
@@ -9580,21 +9573,21 @@
         <v>3</v>
       </c>
       <c r="BK46">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BL46">
-        <v>10</v>
-      </c>
-      <c r="BM46" s="2">
-        <v>20455</v>
+        <v>3</v>
+      </c>
+      <c r="BM46" t="s">
+        <v>101</v>
       </c>
       <c r="BN46">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D47" t="s">
         <v>66</v>
@@ -9603,13 +9596,13 @@
         <v>67</v>
       </c>
       <c r="F47" s="1">
-        <v>44749.448298611111</v>
+        <v>44750.449895833335</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <v>4</v>
@@ -9618,10 +9611,10 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -9636,19 +9629,16 @@
         <v>0</v>
       </c>
       <c r="Q47" t="s">
-        <v>88</v>
-      </c>
-      <c r="R47" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="T47">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U47" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="V47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W47">
         <v>1</v>
@@ -9657,19 +9647,19 @@
         <v>8</v>
       </c>
       <c r="Y47">
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="Z47">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AA47">
-        <v>2</v>
-      </c>
-      <c r="AC47">
-        <v>-9</v>
+        <v>1</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>149</v>
       </c>
       <c r="AE47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF47">
         <v>4</v>
@@ -9681,31 +9671,31 @@
         <v>4</v>
       </c>
       <c r="AI47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN47">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP47">
         <v>4</v>
       </c>
       <c r="AQ47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR47">
         <v>4</v>
@@ -9717,46 +9707,46 @@
         <v>4</v>
       </c>
       <c r="AU47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV47">
         <v>3</v>
       </c>
       <c r="AW47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA47">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="BB47">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="BC47">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="BD47">
-        <v>484</v>
+        <v>383</v>
       </c>
       <c r="BF47" s="1">
-        <v>44749.979733796295</v>
+        <v>44750.454328703701</v>
       </c>
       <c r="BG47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH47">
         <v>0</v>
       </c>
       <c r="BI47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ47">
         <v>3</v>
@@ -9767,16 +9757,16 @@
       <c r="BL47">
         <v>3</v>
       </c>
-      <c r="BM47" t="s">
-        <v>101</v>
+      <c r="BM47" s="2">
+        <v>16438</v>
       </c>
       <c r="BN47">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D48" t="s">
         <v>66</v>
@@ -9785,13 +9775,13 @@
         <v>67</v>
       </c>
       <c r="F48" s="1">
-        <v>44750.449895833335</v>
+        <v>44768.650335648148</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48">
         <v>4</v>
@@ -9820,14 +9810,17 @@
       <c r="Q48" t="s">
         <v>107</v>
       </c>
+      <c r="R48" t="s">
+        <v>141</v>
+      </c>
       <c r="T48">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U48" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="V48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W48">
         <v>1</v>
@@ -9836,25 +9829,25 @@
         <v>8</v>
       </c>
       <c r="Y48">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Z48">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AA48">
         <v>1</v>
       </c>
       <c r="AB48" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AE48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF48">
         <v>4</v>
       </c>
       <c r="AG48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH48">
         <v>4</v>
@@ -9866,10 +9859,10 @@
         <v>3</v>
       </c>
       <c r="AK48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM48">
         <v>4</v>
@@ -9881,13 +9874,13 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ48">
         <v>4</v>
       </c>
       <c r="AR48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS48">
         <v>4</v>
@@ -9896,37 +9889,37 @@
         <v>4</v>
       </c>
       <c r="AU48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY48">
         <v>3</v>
       </c>
       <c r="AZ48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA48">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="BB48">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="BC48">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="BD48">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="BF48" s="1">
-        <v>44750.454328703701</v>
+        <v>44768.654780092591</v>
       </c>
       <c r="BG48">
         <v>1</v>
@@ -9941,21 +9934,21 @@
         <v>3</v>
       </c>
       <c r="BK48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL48">
-        <v>3</v>
-      </c>
-      <c r="BM48" s="2">
-        <v>16438</v>
+        <v>1</v>
+      </c>
+      <c r="BM48" s="3">
+        <v>44896</v>
       </c>
       <c r="BN48">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s">
         <v>66</v>
@@ -9964,13 +9957,13 @@
         <v>67</v>
       </c>
       <c r="F49" s="1">
-        <v>44768.650335648148</v>
+        <v>44777.69059027778</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>4</v>
@@ -9991,46 +9984,49 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>143</v>
+        <v>88</v>
+      </c>
+      <c r="S49" t="s">
+        <v>89</v>
       </c>
       <c r="T49">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="U49" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="V49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W49">
         <v>1</v>
       </c>
       <c r="X49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y49">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="Z49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA49">
         <v>1</v>
       </c>
       <c r="AB49" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AE49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>4</v>
@@ -10048,16 +10044,16 @@
         <v>3</v>
       </c>
       <c r="AK49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL49">
         <v>4</v>
       </c>
       <c r="AM49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN49">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO49">
         <v>3</v>
@@ -10066,49 +10062,49 @@
         <v>3</v>
       </c>
       <c r="AQ49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT49">
         <v>4</v>
       </c>
       <c r="AU49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY49">
         <v>3</v>
       </c>
       <c r="AZ49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA49">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="BB49">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="BC49">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="BD49">
-        <v>384</v>
+        <v>540</v>
       </c>
       <c r="BF49" s="1">
-        <v>44768.654780092591</v>
+        <v>44777.696840277778</v>
       </c>
       <c r="BG49">
         <v>1</v>
@@ -10123,21 +10119,21 @@
         <v>3</v>
       </c>
       <c r="BK49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL49">
-        <v>1</v>
-      </c>
-      <c r="BM49" s="3">
-        <v>44896</v>
+        <v>0</v>
+      </c>
+      <c r="BM49" t="s">
+        <v>151</v>
       </c>
       <c r="BN49">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
@@ -10146,16 +10142,16 @@
         <v>67</v>
       </c>
       <c r="F50" s="1">
-        <v>44777.69059027778</v>
+        <v>44781.470312500001</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50">
         <v>3</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -10173,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="O50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -10182,28 +10178,25 @@
         <v>76</v>
       </c>
       <c r="R50" t="s">
-        <v>88</v>
-      </c>
-      <c r="S50" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="T50">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="U50" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W50">
         <v>1</v>
       </c>
       <c r="X50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y50">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Z50">
         <v>4</v>
@@ -10212,13 +10205,13 @@
         <v>1</v>
       </c>
       <c r="AB50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG50">
         <v>4</v>
@@ -10227,31 +10220,31 @@
         <v>4</v>
       </c>
       <c r="AI50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ50">
         <v>3</v>
       </c>
       <c r="AK50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN50">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP50">
         <v>3</v>
       </c>
       <c r="AQ50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR50">
         <v>2</v>
@@ -10260,13 +10253,13 @@
         <v>3</v>
       </c>
       <c r="AT50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW50">
         <v>2</v>
@@ -10275,25 +10268,25 @@
         <v>3</v>
       </c>
       <c r="AY50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA50">
-        <v>121</v>
+        <v>1534</v>
       </c>
       <c r="BB50">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="BC50">
-        <v>303</v>
+        <v>146</v>
       </c>
       <c r="BD50">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="BF50" s="1">
-        <v>44777.696840277778</v>
+        <v>44783.598773148151</v>
       </c>
       <c r="BG50">
         <v>1</v>
@@ -10308,21 +10301,21 @@
         <v>3</v>
       </c>
       <c r="BK50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BN50">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
         <v>66</v>
@@ -10331,13 +10324,13 @@
         <v>67</v>
       </c>
       <c r="F51" s="1">
-        <v>44781.470312500001</v>
+        <v>44784.694548611114</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -10358,37 +10351,34 @@
         <v>1</v>
       </c>
       <c r="O51">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51" t="s">
-        <v>76</v>
-      </c>
-      <c r="R51" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="T51">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="U51" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="V51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W51">
         <v>1</v>
       </c>
       <c r="X51">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Y51">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z51">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AA51">
         <v>1</v>
@@ -10397,25 +10387,25 @@
         <v>155</v>
       </c>
       <c r="AE51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF51">
         <v>3</v>
       </c>
       <c r="AG51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ51">
         <v>3</v>
       </c>
       <c r="AK51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL51">
         <v>3</v>
@@ -10424,19 +10414,19 @@
         <v>3</v>
       </c>
       <c r="AN51">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO51">
         <v>5</v>
       </c>
       <c r="AP51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>4</v>
       </c>
       <c r="AR51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS51">
         <v>3</v>
@@ -10448,34 +10438,34 @@
         <v>3</v>
       </c>
       <c r="AV51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW51">
         <v>2</v>
       </c>
       <c r="AX51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA51">
-        <v>1534</v>
+        <v>106</v>
       </c>
       <c r="BB51">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="BC51">
-        <v>146</v>
+        <v>343</v>
       </c>
       <c r="BD51">
-        <v>513</v>
+        <v>712</v>
       </c>
       <c r="BF51" s="1">
-        <v>44783.598773148151</v>
+        <v>44784.702800925923</v>
       </c>
       <c r="BG51">
         <v>1</v>
@@ -10490,21 +10480,21 @@
         <v>3</v>
       </c>
       <c r="BK51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BL51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM51" t="s">
         <v>156</v>
       </c>
       <c r="BN51">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D52" t="s">
         <v>66</v>
@@ -10513,16 +10503,16 @@
         <v>67</v>
       </c>
       <c r="F52" s="1">
-        <v>44784.694548611114</v>
+        <v>44818.516574074078</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -10540,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="O52">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -10548,92 +10538,95 @@
       <c r="Q52" t="s">
         <v>75</v>
       </c>
+      <c r="R52" t="s">
+        <v>82</v>
+      </c>
       <c r="T52">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U52" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="V52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W52">
         <v>1</v>
       </c>
       <c r="X52">
+        <v>4</v>
+      </c>
+      <c r="Y52">
+        <v>9</v>
+      </c>
+      <c r="Z52">
+        <v>6</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE52">
+        <v>3</v>
+      </c>
+      <c r="AF52">
+        <v>2</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52">
+        <v>3</v>
+      </c>
+      <c r="AI52">
+        <v>3</v>
+      </c>
+      <c r="AJ52">
+        <v>4</v>
+      </c>
+      <c r="AK52">
+        <v>3</v>
+      </c>
+      <c r="AL52">
+        <v>3</v>
+      </c>
+      <c r="AM52">
+        <v>4</v>
+      </c>
+      <c r="AN52">
+        <v>60</v>
+      </c>
+      <c r="AO52">
         <v>10</v>
       </c>
-      <c r="Y52">
-        <v>16</v>
-      </c>
-      <c r="Z52">
-        <v>11</v>
-      </c>
-      <c r="AA52">
-        <v>1</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE52">
-        <v>4</v>
-      </c>
-      <c r="AF52">
-        <v>3</v>
-      </c>
-      <c r="AG52">
-        <v>3</v>
-      </c>
-      <c r="AH52">
-        <v>3</v>
-      </c>
-      <c r="AI52">
-        <v>3</v>
-      </c>
-      <c r="AJ52">
-        <v>3</v>
-      </c>
-      <c r="AK52">
-        <v>1</v>
-      </c>
-      <c r="AL52">
-        <v>3</v>
-      </c>
-      <c r="AM52">
-        <v>3</v>
-      </c>
-      <c r="AN52">
-        <v>80</v>
-      </c>
-      <c r="AO52">
-        <v>5</v>
-      </c>
       <c r="AP52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT52">
         <v>3</v>
       </c>
       <c r="AU52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW52">
         <v>2</v>
       </c>
       <c r="AX52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY52">
         <v>4</v>
@@ -10642,19 +10635,19 @@
         <v>4</v>
       </c>
       <c r="BA52">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="BB52">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="BC52">
-        <v>343</v>
+        <v>120</v>
       </c>
       <c r="BD52">
-        <v>712</v>
+        <v>374</v>
       </c>
       <c r="BF52" s="1">
-        <v>44784.702800925923</v>
+        <v>44818.520902777775</v>
       </c>
       <c r="BG52">
         <v>1</v>
@@ -10669,21 +10662,21 @@
         <v>3</v>
       </c>
       <c r="BK52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BL52">
-        <v>3</v>
-      </c>
-      <c r="BM52" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="BM52" s="3">
+        <v>44621</v>
       </c>
       <c r="BN52">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
         <v>66</v>
@@ -10692,13 +10685,13 @@
         <v>67</v>
       </c>
       <c r="F53" s="1">
-        <v>44818.516574074078</v>
+        <v>44818.650601851848</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53">
         <v>4</v>
@@ -10719,25 +10712,28 @@
         <v>1</v>
       </c>
       <c r="O53">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="R53" t="s">
-        <v>82</v>
+        <v>141</v>
+      </c>
+      <c r="S53" t="s">
+        <v>157</v>
       </c>
       <c r="T53">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U53" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="V53">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W53">
         <v>1</v>
@@ -10746,25 +10742,25 @@
         <v>4</v>
       </c>
       <c r="Y53">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA53">
         <v>1</v>
       </c>
       <c r="AB53" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AE53">
         <v>3</v>
       </c>
       <c r="AF53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH53">
         <v>3</v>
@@ -10785,34 +10781,34 @@
         <v>4</v>
       </c>
       <c r="AN53">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AO53">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AP53">
         <v>4</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS53">
         <v>4</v>
       </c>
       <c r="AT53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX53">
         <v>4</v>
@@ -10821,22 +10817,22 @@
         <v>4</v>
       </c>
       <c r="AZ53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BA53">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="BB53">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="BC53">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="BD53">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="BF53" s="1">
-        <v>44818.520902777775</v>
+        <v>44818.656053240738</v>
       </c>
       <c r="BG53">
         <v>1</v>
@@ -10851,21 +10847,21 @@
         <v>3</v>
       </c>
       <c r="BK53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BL53">
-        <v>1</v>
-      </c>
-      <c r="BM53" s="3">
-        <v>44621</v>
+        <v>0</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>134</v>
       </c>
       <c r="BN53">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
         <v>66</v>
@@ -10874,13 +10870,13 @@
         <v>67</v>
       </c>
       <c r="F54" s="1">
-        <v>44818.650601851848</v>
+        <v>44823.67591435185</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -10901,332 +10897,147 @@
         <v>1</v>
       </c>
       <c r="O54">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="R54" t="s">
-        <v>143</v>
-      </c>
-      <c r="S54" t="s">
+        <v>72</v>
+      </c>
+      <c r="T54">
+        <v>134</v>
+      </c>
+      <c r="U54" t="s">
+        <v>107</v>
+      </c>
+      <c r="V54">
+        <v>7</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>4</v>
+      </c>
+      <c r="Y54">
+        <v>4</v>
+      </c>
+      <c r="Z54">
+        <v>4</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE54">
+        <v>2</v>
+      </c>
+      <c r="AF54">
+        <v>4</v>
+      </c>
+      <c r="AG54">
+        <v>3</v>
+      </c>
+      <c r="AH54">
+        <v>4</v>
+      </c>
+      <c r="AI54">
+        <v>4</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>2</v>
+      </c>
+      <c r="AL54">
+        <v>4</v>
+      </c>
+      <c r="AM54">
+        <v>3</v>
+      </c>
+      <c r="AN54">
+        <v>90</v>
+      </c>
+      <c r="AO54">
+        <v>7</v>
+      </c>
+      <c r="AP54">
+        <v>3</v>
+      </c>
+      <c r="AQ54">
+        <v>4</v>
+      </c>
+      <c r="AR54">
+        <v>4</v>
+      </c>
+      <c r="AS54">
+        <v>3</v>
+      </c>
+      <c r="AT54">
+        <v>4</v>
+      </c>
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>3</v>
+      </c>
+      <c r="AW54">
+        <v>4</v>
+      </c>
+      <c r="AX54">
+        <v>4</v>
+      </c>
+      <c r="AY54">
+        <v>4</v>
+      </c>
+      <c r="AZ54">
+        <v>4</v>
+      </c>
+      <c r="BA54">
+        <v>1483</v>
+      </c>
+      <c r="BB54">
+        <v>155</v>
+      </c>
+      <c r="BC54">
+        <v>174</v>
+      </c>
+      <c r="BD54">
+        <v>425</v>
+      </c>
+      <c r="BF54" s="1">
+        <v>44823.696886574071</v>
+      </c>
+      <c r="BG54">
+        <v>1</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>3</v>
+      </c>
+      <c r="BJ54">
+        <v>3</v>
+      </c>
+      <c r="BK54">
+        <v>3</v>
+      </c>
+      <c r="BL54">
+        <v>1</v>
+      </c>
+      <c r="BM54" t="s">
         <v>159</v>
       </c>
-      <c r="T54">
-        <v>133</v>
-      </c>
-      <c r="U54" t="s">
-        <v>149</v>
-      </c>
-      <c r="V54">
-        <v>9</v>
-      </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="X54">
-        <v>4</v>
-      </c>
-      <c r="Y54">
-        <v>3</v>
-      </c>
-      <c r="Z54">
-        <v>4</v>
-      </c>
-      <c r="AA54">
-        <v>1</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE54">
-        <v>3</v>
-      </c>
-      <c r="AF54">
-        <v>4</v>
-      </c>
-      <c r="AG54">
-        <v>3</v>
-      </c>
-      <c r="AH54">
-        <v>3</v>
-      </c>
-      <c r="AI54">
-        <v>3</v>
-      </c>
-      <c r="AJ54">
-        <v>4</v>
-      </c>
-      <c r="AK54">
-        <v>3</v>
-      </c>
-      <c r="AL54">
-        <v>3</v>
-      </c>
-      <c r="AM54">
-        <v>4</v>
-      </c>
-      <c r="AN54">
-        <v>70</v>
-      </c>
-      <c r="AO54">
-        <v>2</v>
-      </c>
-      <c r="AP54">
-        <v>4</v>
-      </c>
-      <c r="AQ54">
-        <v>4</v>
-      </c>
-      <c r="AR54">
-        <v>3</v>
-      </c>
-      <c r="AS54">
-        <v>4</v>
-      </c>
-      <c r="AT54">
-        <v>4</v>
-      </c>
-      <c r="AU54">
-        <v>3</v>
-      </c>
-      <c r="AV54">
-        <v>4</v>
-      </c>
-      <c r="AW54">
-        <v>3</v>
-      </c>
-      <c r="AX54">
-        <v>4</v>
-      </c>
-      <c r="AY54">
-        <v>4</v>
-      </c>
-      <c r="AZ54">
-        <v>2</v>
-      </c>
-      <c r="BA54">
-        <v>79</v>
-      </c>
-      <c r="BB54">
-        <v>137</v>
-      </c>
-      <c r="BC54">
-        <v>255</v>
-      </c>
-      <c r="BD54">
-        <v>471</v>
-      </c>
-      <c r="BF54" s="1">
-        <v>44818.656053240738</v>
-      </c>
-      <c r="BG54">
-        <v>1</v>
-      </c>
-      <c r="BH54">
-        <v>0</v>
-      </c>
-      <c r="BI54">
-        <v>3</v>
-      </c>
-      <c r="BJ54">
-        <v>3</v>
-      </c>
-      <c r="BK54">
-        <v>0</v>
-      </c>
-      <c r="BL54">
-        <v>0</v>
-      </c>
-      <c r="BM54" t="s">
-        <v>136</v>
-      </c>
       <c r="BN54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>203</v>
-      </c>
-      <c r="D55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="1">
-        <v>44823.67591435185</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
-      </c>
-      <c r="I55">
-        <v>4</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>21</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>107</v>
-      </c>
-      <c r="R55" t="s">
-        <v>72</v>
-      </c>
-      <c r="T55">
-        <v>134</v>
-      </c>
-      <c r="U55" t="s">
-        <v>107</v>
-      </c>
-      <c r="V55">
-        <v>7</v>
-      </c>
-      <c r="W55">
-        <v>1</v>
-      </c>
-      <c r="X55">
-        <v>4</v>
-      </c>
-      <c r="Y55">
-        <v>4</v>
-      </c>
-      <c r="Z55">
-        <v>4</v>
-      </c>
-      <c r="AA55">
-        <v>1</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE55">
-        <v>2</v>
-      </c>
-      <c r="AF55">
-        <v>4</v>
-      </c>
-      <c r="AG55">
-        <v>3</v>
-      </c>
-      <c r="AH55">
-        <v>4</v>
-      </c>
-      <c r="AI55">
-        <v>4</v>
-      </c>
-      <c r="AJ55">
-        <v>2</v>
-      </c>
-      <c r="AK55">
-        <v>2</v>
-      </c>
-      <c r="AL55">
-        <v>4</v>
-      </c>
-      <c r="AM55">
-        <v>3</v>
-      </c>
-      <c r="AN55">
-        <v>90</v>
-      </c>
-      <c r="AO55">
-        <v>7</v>
-      </c>
-      <c r="AP55">
-        <v>3</v>
-      </c>
-      <c r="AQ55">
-        <v>4</v>
-      </c>
-      <c r="AR55">
-        <v>4</v>
-      </c>
-      <c r="AS55">
-        <v>3</v>
-      </c>
-      <c r="AT55">
-        <v>4</v>
-      </c>
-      <c r="AU55">
-        <v>3</v>
-      </c>
-      <c r="AV55">
-        <v>3</v>
-      </c>
-      <c r="AW55">
-        <v>4</v>
-      </c>
-      <c r="AX55">
-        <v>4</v>
-      </c>
-      <c r="AY55">
-        <v>4</v>
-      </c>
-      <c r="AZ55">
-        <v>4</v>
-      </c>
-      <c r="BA55">
-        <v>1483</v>
-      </c>
-      <c r="BB55">
-        <v>155</v>
-      </c>
-      <c r="BC55">
-        <v>174</v>
-      </c>
-      <c r="BD55">
-        <v>425</v>
-      </c>
-      <c r="BF55" s="1">
-        <v>44823.696886574071</v>
-      </c>
-      <c r="BG55">
-        <v>1</v>
-      </c>
-      <c r="BH55">
-        <v>0</v>
-      </c>
-      <c r="BI55">
-        <v>3</v>
-      </c>
-      <c r="BJ55">
-        <v>3</v>
-      </c>
-      <c r="BK55">
-        <v>3</v>
-      </c>
-      <c r="BL55">
-        <v>1</v>
-      </c>
-      <c r="BM55" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN55">
         <v>1</v>
       </c>
     </row>
